--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H2">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J2">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>22.32073553015031</v>
+        <v>63.63342563272599</v>
       </c>
       <c r="R2">
-        <v>22.32073553015031</v>
+        <v>572.7008306945339</v>
       </c>
       <c r="S2">
-        <v>0.02067373629099546</v>
+        <v>0.03577662187221955</v>
       </c>
       <c r="T2">
-        <v>0.02067373629099546</v>
+        <v>0.03577662187221956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H3">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J3">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>0.06885690889269701</v>
+        <v>0.2009765167253333</v>
       </c>
       <c r="R3">
-        <v>0.06885690889269701</v>
+        <v>1.808788650528</v>
       </c>
       <c r="S3">
-        <v>6.377610515289019E-05</v>
+        <v>0.0001129950300896607</v>
       </c>
       <c r="T3">
-        <v>6.377610515289019E-05</v>
+        <v>0.0001129950300896607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.273542799517664</v>
+        <v>0.520183</v>
       </c>
       <c r="H4">
-        <v>0.273542799517664</v>
+        <v>1.560549</v>
       </c>
       <c r="I4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="J4">
-        <v>0.02129531191281963</v>
+        <v>0.03656880080220595</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>0.6022373176873737</v>
+        <v>1.208017859802</v>
       </c>
       <c r="R4">
-        <v>0.6022373176873737</v>
+        <v>10.872160738218</v>
       </c>
       <c r="S4">
-        <v>0.0005577995166712758</v>
+        <v>0.0006791838998967411</v>
       </c>
       <c r="T4">
-        <v>0.0005577995166712758</v>
+        <v>0.0006791838998967411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H5">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J5">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>969.2751438376725</v>
+        <v>1588.429553251332</v>
       </c>
       <c r="R5">
-        <v>969.2751438376725</v>
+        <v>14295.86597926199</v>
       </c>
       <c r="S5">
-        <v>0.8977544082294763</v>
+        <v>0.8930627721557892</v>
       </c>
       <c r="T5">
-        <v>0.8977544082294763</v>
+        <v>0.8930627721557892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H6">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J6">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>2.990102641601299</v>
+        <v>5.016813655744001</v>
       </c>
       <c r="R6">
-        <v>2.990102641601299</v>
+        <v>45.15132290169601</v>
       </c>
       <c r="S6">
-        <v>0.002769469375772756</v>
+        <v>0.00282060321883148</v>
       </c>
       <c r="T6">
-        <v>0.002769469375772756</v>
+        <v>0.002820603218831479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.8785617969489</v>
+        <v>12.984906</v>
       </c>
       <c r="H7">
-        <v>11.8785617969489</v>
+        <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.924746251730144</v>
+        <v>0.912837291778795</v>
       </c>
       <c r="J7">
-        <v>0.924746251730144</v>
+        <v>0.9128372917787949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>26.1520800664185</v>
+        <v>30.15476929436401</v>
       </c>
       <c r="R7">
-        <v>26.1520800664185</v>
+        <v>271.392923649276</v>
       </c>
       <c r="S7">
-        <v>0.0242223741248949</v>
+        <v>0.01695391640417429</v>
       </c>
       <c r="T7">
-        <v>0.0242223741248949</v>
+        <v>0.01695391640417428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H8">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J8">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>56.55667277739288</v>
+        <v>88.03853488741399</v>
       </c>
       <c r="R8">
-        <v>56.55667277739288</v>
+        <v>792.3468139867259</v>
       </c>
       <c r="S8">
-        <v>0.05238347709987264</v>
+        <v>0.04949790682385251</v>
       </c>
       <c r="T8">
-        <v>0.05238347709987264</v>
+        <v>0.04949790682385252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H9">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J9">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>0.174470848393265</v>
+        <v>0.2780563501546667</v>
       </c>
       <c r="R9">
-        <v>0.174470848393265</v>
+        <v>2.502507151392</v>
       </c>
       <c r="S9">
-        <v>0.0001615970183991657</v>
+        <v>0.0001563316260241831</v>
       </c>
       <c r="T9">
-        <v>0.0001615970183991657</v>
+        <v>0.0001563316260241831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.693107562787754</v>
+        <v>0.719687</v>
       </c>
       <c r="H10">
-        <v>0.693107562787754</v>
+        <v>2.159061</v>
       </c>
       <c r="I10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="J10">
-        <v>0.05395843635703639</v>
+        <v>0.05059390741899907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>1.525959521574522</v>
+        <v>1.671324801978</v>
       </c>
       <c r="R10">
-        <v>1.525959521574522</v>
+        <v>15.041923217802</v>
       </c>
       <c r="S10">
-        <v>0.001413362238764576</v>
+        <v>0.0009396689691223778</v>
       </c>
       <c r="T10">
-        <v>0.001413362238764576</v>
+        <v>0.0009396689691223778</v>
       </c>
     </row>
   </sheetData>
